--- a/iPOS.FrontEnd/iPOS.Core/Template/PRO/PRO_District_FileSelect.xlsx
+++ b/iPOS.FrontEnd/iPOS.Core/Template/PRO/PRO_District_FileSelect.xlsx
@@ -469,13 +469,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="13.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="2" customWidth="1"/>
@@ -540,10 +541,10 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
@@ -561,7 +562,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -571,7 +574,9 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -581,7 +586,9 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -591,7 +598,9 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -601,7 +610,9 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -611,7 +622,9 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -621,7 +634,9 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -631,7 +646,9 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -641,7 +658,9 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -651,7 +670,9 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -661,7 +682,9 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -671,7 +694,9 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -681,7 +706,9 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -691,7 +718,9 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -701,7 +730,9 @@
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -711,7 +742,9 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -721,7 +754,9 @@
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -731,7 +766,9 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
